--- a/data/trans_bre/P27-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,47</t>
+          <t>14,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,29</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,75</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>37,88%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,41%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 21,22</t>
+          <t>3,73; 26,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 23,18</t>
+          <t>6,67; 28,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 21,13</t>
+          <t>-3,6; 20,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,71; 47,36</t>
+          <t>-17,42; 11,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 58,17</t>
+          <t>6,89; 67,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 47,04</t>
+          <t>12,63; 76,2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 47,42</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-27,84; 24,88</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,2</t>
+          <t>17,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,37</t>
+          <t>14,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,25%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>38,02%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28,77%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 16,54</t>
+          <t>-5,72; 18,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,02; 30,18</t>
+          <t>4,19; 28,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 28,02</t>
+          <t>3,2; 27,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 39,29</t>
+          <t>-7,34; 19,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,73; 78,92</t>
+          <t>-9,84; 45,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,32; 68,32</t>
+          <t>8,03; 74,65</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 64,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-16,05; 58,85</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,84</t>
+          <t>18,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 37,28</t>
+          <t>-11,15; 51,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 28,65</t>
+          <t>-18,4; 42,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 24,87</t>
+          <t>-28,59; 25,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 123,06</t>
+          <t>-25,72; 35,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 78,66</t>
+          <t>-18,13; 250,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 61,3</t>
+          <t>-27,39; 149,74</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-37,46; 52,02</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-38,69; 101,75</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,33</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 17,18</t>
+          <t>3,75; 20,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 21,91</t>
+          <t>8,57; 24,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 20,63</t>
+          <t>1,39; 18,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 38,3</t>
+          <t>-7,82; 11,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,19; 53,06</t>
+          <t>7,12; 46,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 45,32</t>
+          <t>17,94; 62,57</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 40,44</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-14,36; 26,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P27-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14,74</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,25</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>29,57%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>37,88%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>14,63%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>14.88500299623781</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>16.60486259224283</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.301794107379944</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.1375320947667902</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2949291189080981</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3579847510635314</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.159726619916278</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.002506849382715091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 26,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,67; 28,55</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 20,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,42; 11,52</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 67,05</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>12,63; 76,2</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-6,11; 47,42</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-27,84; 24,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.853387715764771</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6.359674487949104</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.035073069344542</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-17.99085727188929</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.06841774465851151</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.1131729743032795</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.05435780219174719</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2864782174202239</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.67621072460837</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>27.69072787587871</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20.95897318426561</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.52109490983293</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.6088940616070195</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.7042916480140887</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.478849392127774</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2461836796282267</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>17,19</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>14,9</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,39</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>13,75%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>38,02%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>28,77%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,72; 18,72</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,19; 28,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 27,39</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; 19,25</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 45,42</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>8,03; 74,65</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>5,37; 64,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-16,05; 58,85</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.557997467395827</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>18.97634149161567</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>15.01733595351979</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.567013741519663</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1570248682268336</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4328955537622906</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2951461042886219</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1964515976571636</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>18,46</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>42,45%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>19,53%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-1,85%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>11,6%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.929597821954093</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5.738605288079238</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.529462349091574</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.530354794416652</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.09182118133338336</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.11387615963204</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.04841543156072557</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1227478885041308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,15; 51,13</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,4; 42,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-28,59; 25,63</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-25,72; 35,73</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,13; 250,0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-27,39; 149,74</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-37,46; 52,02</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-38,69; 101,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>20.38151178530911</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>30.78044786404687</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>27.7190602208651</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.55475861302878</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5203366987666098</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.8434960881082826</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6794814596742287</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.6606376250226096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,88</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16,47</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,61</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>24,37%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>35,92%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>17,89%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>22.60001542940607</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.396064687941017</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.731441508641606</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>9.510042846728217</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.5587090612295494</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1184217580542442</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.01101746079910584</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1726828909244697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 20,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,57; 24,66</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 18,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 11,67</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 46,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>17,94; 62,57</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 40,44</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-14,36; 26,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.329900140674801</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.8026802318755</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-26.26947327237109</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-22.70120999375687</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1211699136908829</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.297773448760936</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3367839267861646</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3402296772508829</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>53.93068820277921</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>38.70840781381326</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>26.71162526232619</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>37.94529946774869</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.801910845824903</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.147699225673174</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5385158208766506</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.151454617172828</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>12.76508611011478</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>16.57459034566714</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.21798901041032</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.994175797869342</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.263220515908726</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3596697428277252</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1925367650467104</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.08256709257638983</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.040349494119674</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>9.037398680788746</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.924543977790607</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-6.805285917763751</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.07621042938481012</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1838341029692502</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.03463544488701979</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1279107904381668</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.62709928708658</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>24.66592896438246</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>19.0313719064632</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.47118129601743</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4746482282070237</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6199801909651361</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4158920089206902</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2843970583782824</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
